--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21323"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22206"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.4.2-us-wipC\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipP\InputData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_7452FC10574166109F7254CB68855F028DE2AA88" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_D1D127A6F92FA3437A4AED662F748F1322AC704B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="8730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="8730" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="547">
   <si>
     <t>Acronym Key</t>
   </si>
@@ -82,16 +83,16 @@
     <t>at least one output variable and for which leaving U.S. data in place would result in large</t>
   </si>
   <si>
-    <t>inaccuracies.  For example, "BAU Fleet Fuel Use" is of high importance, because different</t>
-  </si>
-  <si>
-    <t>countries have different size vehicle fleets, and the results of most variables in the</t>
-  </si>
-  <si>
-    <t>transportation sector will be significantly wrong if these data are not updated to represent</t>
-  </si>
-  <si>
-    <t>the modeled country.</t>
+    <t>inaccuracies.  For example, in the buildings sector, "BAU Components Energy Use" is of</t>
+  </si>
+  <si>
+    <t>high importance, because different countries have different numbers of buildings and</t>
+  </si>
+  <si>
+    <t>different climate conditions, so the results of most variables in the buildings sector will</t>
+  </si>
+  <si>
+    <t>be significantly wrong if these data are not updated to represent the modeled country.</t>
   </si>
   <si>
     <t>very high</t>
@@ -238,9 +239,15 @@
     <t>Contents (for multi-variable folders)</t>
   </si>
   <si>
+    <t>Relies on variable</t>
+  </si>
+  <si>
     <t>Importance to Update for New Country</t>
   </si>
   <si>
+    <t>Update Only Needed If:</t>
+  </si>
+  <si>
     <t>add-outputs</t>
   </si>
   <si>
@@ -292,6 +299,21 @@
     <t>BAU Fraction of Components Sold by Quality Level</t>
   </si>
   <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>You plan on using the building component rebate policy lever</t>
+  </si>
+  <si>
+    <t>BRESaC</t>
+  </si>
+  <si>
+    <t>Bldg Retrofitting E Savings and Costs</t>
+  </si>
+  <si>
+    <t>Percent Energy Savings from Retrofitting by Component, Retrofitting Cost per Unit Energy Saved</t>
+  </si>
+  <si>
     <t>CL</t>
   </si>
   <si>
@@ -364,10 +386,7 @@
     <t>Perc E Use Difference from Std by Quality Level</t>
   </si>
   <si>
-    <t>PEURfRC</t>
-  </si>
-  <si>
-    <t>Perc Energy Use Reduction for Retrofit Components</t>
+    <t>You plan on using the building component rebate policy lever (otherwise set to zero)</t>
   </si>
   <si>
     <t>PPEIdtICEaT</t>
@@ -382,6 +401,15 @@
     <t>Potential Percentage Eff Improvement due to Improved Labeling</t>
   </si>
   <si>
+    <t>RBFF</t>
+  </si>
+  <si>
+    <t>Recipient Buildings Fuel Fractions</t>
+  </si>
+  <si>
+    <t>You want this policy lever to be something other than a buildings electrification policy (e.g. shift to hydrogen, etc.)</t>
+  </si>
+  <si>
     <t>SoCEUtiNTY</t>
   </si>
   <si>
@@ -427,7 +455,7 @@
     <t>Cash Flow Quantization Size</t>
   </si>
   <si>
-    <t>n/a (only adjust if needed to dampen rounding error in near-zero changes in cash flows)</t>
+    <t>Rounding error is visible in final web app output graphs in near-zero changes in cash flows</t>
   </si>
   <si>
     <t>DR</t>
@@ -457,10 +485,13 @@
     <t>Efficiency of Conversion to Usable Heat</t>
   </si>
   <si>
-    <t>FoDHFObE</t>
-  </si>
-  <si>
-    <t>Fraction of District Heating Facilities Owned by Entity</t>
+    <t>RHFF</t>
+  </si>
+  <si>
+    <t>Recipient Heat Fuel Fractions</t>
+  </si>
+  <si>
+    <t>You want this policy lever to shift to a fuel other than hydrogen</t>
   </si>
   <si>
     <t>elec</t>
@@ -478,10 +509,10 @@
     <t>Battery Cost per Unit Capacity</t>
   </si>
   <si>
-    <t>BCR</t>
-  </si>
-  <si>
-    <t>BAU Capacity Retirements</t>
+    <t>BCRbQ</t>
+  </si>
+  <si>
+    <t>BAU Capacity Retirements before Quantization</t>
   </si>
   <si>
     <t>BDPbES</t>
@@ -490,7 +521,7 @@
     <t>BAU Dispatch Priority by Electricity Source</t>
   </si>
   <si>
-    <t>high (only if applicable to new country)</t>
+    <t>You are modeling a region where power plants are dispatched based on non-market rules rather than by least marginal cost</t>
   </si>
   <si>
     <t>BDSBaPCF</t>
@@ -550,6 +581,9 @@
     <t>BAU Policy Mandated Capacity Construction Schedule</t>
   </si>
   <si>
+    <t>You know particular capacities of particular types of plants will come online in particular years (for example, they are already under construction), or you are modeling a region where power plant construction decisions are based on government mandates rather than being market-driven</t>
+  </si>
+  <si>
     <t>BRPSPTY</t>
   </si>
   <si>
@@ -577,6 +611,12 @@
     <t>BAU Construction Cost per Unit Capacity, Annual Fixed O&amp;M Cost per Unit Capacity, Variable O&amp;M Cost per Unit Elec Output</t>
   </si>
   <si>
+    <t>DCpUC</t>
+  </si>
+  <si>
+    <t>Decommissioning Cost per Unit Capacity</t>
+  </si>
+  <si>
     <t>DPbES</t>
   </si>
   <si>
@@ -586,6 +626,9 @@
     <t>n/a (policy lever)</t>
   </si>
   <si>
+    <t>You are modeling a region where power plants are dispatched based on non-market rules rather than by least marginal cost, and you are setting this policy lever to alter the BAU priorities</t>
+  </si>
+  <si>
     <t>DRC</t>
   </si>
   <si>
@@ -649,6 +692,9 @@
     <t>Guaranteed Dispatch Percentage by Electricity Source</t>
   </si>
   <si>
+    <t>You are modeling a region where power plants are dispatched based on non-market rules rather than by least marginal cost, and you are setting this policy lever to alter the BAU percentages</t>
+  </si>
+  <si>
     <t>MCGLT</t>
   </si>
   <si>
@@ -691,6 +737,9 @@
     <t>Policy Mandated Capacity Construction Schedule</t>
   </si>
   <si>
+    <t>You are modeling a region where power plant construction decisions are based on government mandates rather than being market-driven, and you are setting this policy lever to alter the BAU mandates</t>
+  </si>
+  <si>
     <t>PTCF</t>
   </si>
   <si>
@@ -712,7 +761,7 @@
     <t>BAU RPS Qualifying Source Definitions, RPS Qualifying Source Definitions</t>
   </si>
   <si>
-    <t>medium (n/a for RPS Qualifying Sources, as it is a policy lever)</t>
+    <t>medium (n/a for RPS Qualifying Source Definitions, as it is a policy lever)</t>
   </si>
   <si>
     <t>SLF</t>
@@ -742,6 +791,18 @@
     <t>Transmission Construction Cost per Unit Capacity Distance</t>
   </si>
   <si>
+    <t>WUbPPT</t>
+  </si>
+  <si>
+    <t>Water Use by Power Plant Type</t>
+  </si>
+  <si>
+    <t>Water Withdrawals by Power Plant Type, Water Consumption by Power Plant Type</t>
+  </si>
+  <si>
+    <t>You want to estimate the amount of water withdrawn or consumed by power plants, and you believe power plants in the modeled region need different amounts of cooling water than the same types of power plants in the U.S.</t>
+  </si>
+  <si>
     <t>endo-learn</t>
   </si>
   <si>
@@ -808,6 +869,15 @@
     <t>BAU Fuel Cost per Unit Energy by Sector</t>
   </si>
   <si>
+    <t>BFPIaE</t>
+  </si>
+  <si>
+    <t>BAU Fuel Production Imports and Exports</t>
+  </si>
+  <si>
+    <t>BAU Fuel Production, BAU Fuel Imports, BAU Fuel Exports</t>
+  </si>
+  <si>
     <t>BS</t>
   </si>
   <si>
@@ -823,12 +893,63 @@
     <t>BAU Share of Fuel Price that is Tax</t>
   </si>
   <si>
+    <t>EQS</t>
+  </si>
+  <si>
+    <t>Energy Quantization Size</t>
+  </si>
+  <si>
+    <t>Rounding error is visible in final web app output graphs in changes in fuel imports/exports with no policies enabled</t>
+  </si>
+  <si>
+    <t>ETRbF</t>
+  </si>
+  <si>
+    <t>Export Tax Rate by Fuel</t>
+  </si>
+  <si>
     <t>GbPbT</t>
   </si>
   <si>
     <t>GWP by Pollutant by Timeframe</t>
   </si>
   <si>
+    <t>You want to use a data source for GWP values other than IPCC AR5</t>
+  </si>
+  <si>
+    <t>IMFPbFT</t>
+  </si>
+  <si>
+    <t>International Market Fuel Price by Fuel Type</t>
+  </si>
+  <si>
+    <t>MPIiFE</t>
+  </si>
+  <si>
+    <t>Maximum Percentage Increase in Fuel Exports</t>
+  </si>
+  <si>
+    <t>You wish to cap the amount by which policies may increase the exports of one or more fuel types</t>
+  </si>
+  <si>
+    <t>MPIiFI</t>
+  </si>
+  <si>
+    <t>Maximum Percentage Increase in Fuel Imports</t>
+  </si>
+  <si>
+    <t>You wish to cap the amount by which policies may increase the imports of one or more fuel types</t>
+  </si>
+  <si>
+    <t>MPIiFP</t>
+  </si>
+  <si>
+    <t>Maximum Percentage Increase in Fuel Production</t>
+  </si>
+  <si>
+    <t>You wish to cap the amount by which policies may increase the production of one or more fuel types</t>
+  </si>
+  <si>
     <t>PEI</t>
   </si>
   <si>
@@ -838,6 +959,75 @@
     <t>Transportation Fuel Pollutant Emissions Intensities, Electricity Fuel Pollutant Emissions Intensities, Buildings Fuel Pollutant Emissions Intensities, Industrial Fuel Pollutant Emissions Intensities</t>
   </si>
   <si>
+    <t>PEIIR</t>
+  </si>
+  <si>
+    <t>Pollutant Emissions Intensity Improvement Rate</t>
+  </si>
+  <si>
+    <t>Transportation Fuel Pollutant Emissions Intensity Improvement Rate, Electricity Fuel Pollutant Emissions Intensity Improvement Rate, Buildings Fuel Pollutant Emissions Intensity Improvement Rate, Industrial Fuel Pollutant Emissions Intensity Improvement Rate</t>
+  </si>
+  <si>
+    <t>PoFDCtAE</t>
+  </si>
+  <si>
+    <t>Percentage of Fuel Demand Change that Alters Exports</t>
+  </si>
+  <si>
+    <t>hydgn</t>
+  </si>
+  <si>
+    <t>BHPSbP</t>
+  </si>
+  <si>
+    <t>BAU Hydrogen Production Shares by Pathway</t>
+  </si>
+  <si>
+    <t>EHPpUC</t>
+  </si>
+  <si>
+    <t>Electrolyzer Hydrogen Production per Unit Capacity</t>
+  </si>
+  <si>
+    <t>HPEbP</t>
+  </si>
+  <si>
+    <t>Hydrogen Production Efficiency by Pathway</t>
+  </si>
+  <si>
+    <t>HPEC</t>
+  </si>
+  <si>
+    <t>Hydrogen Production Equipment Costs</t>
+  </si>
+  <si>
+    <t>Hydrogen Production Equipment CapEx, Hydrogen Production Equipment OpEx</t>
+  </si>
+  <si>
+    <t>HPPECbP</t>
+  </si>
+  <si>
+    <t>Hydrogen Production Percent Excess Capacity by Pathway</t>
+  </si>
+  <si>
+    <t>HPtFM</t>
+  </si>
+  <si>
+    <t>Hydrogen Pathway to Fuel Mappings</t>
+  </si>
+  <si>
+    <t>You redefine one or more hydrogen production pathways</t>
+  </si>
+  <si>
+    <t>RHPF</t>
+  </si>
+  <si>
+    <t>Recipient Hydrogen Pathway Fractions</t>
+  </si>
+  <si>
+    <t>You wish for the hydrogen pathway shifting policy to shift hydrogen production to a pathway other than electrolysis</t>
+  </si>
+  <si>
     <t>indst</t>
   </si>
   <si>
@@ -853,12 +1043,24 @@
     <t>BAU Process Emissions in CO2e</t>
   </si>
   <si>
+    <t>Process Emissions in CO2e, Share of Agriculture Process Emissions from Animals</t>
+  </si>
+  <si>
     <t>BPoIFUfE</t>
   </si>
   <si>
     <t>BAU Proportion of Industrial Fuel Used for Energy</t>
   </si>
   <si>
+    <t>You are including fuel used as a feedstock (not burned for energy) in indst/BIFUbC (otherwise set to zero)</t>
+  </si>
+  <si>
+    <t>BSoAIGtAP</t>
+  </si>
+  <si>
+    <t>BAU Share of Agriculture Industry Going to Animal Products</t>
+  </si>
+  <si>
     <t>CESTR</t>
   </si>
   <si>
@@ -886,6 +1088,24 @@
     <t>Foreign Leakage Rate by Industry</t>
   </si>
   <si>
+    <t>You want to estimate induced foreign emissions</t>
+  </si>
+  <si>
+    <t>FoISaGPbE</t>
+  </si>
+  <si>
+    <t>Fraction of Inputs Supplied and Goods Purchased by Entity</t>
+  </si>
+  <si>
+    <t>Fraction of Goods Purchased by Entity, Nonenergy Inputs by Supplying Entity as Share of Gross Output</t>
+  </si>
+  <si>
+    <t>FoNEtVwP</t>
+  </si>
+  <si>
+    <t>Fraction of Nonenergy Expenditures that Vary with Production</t>
+  </si>
+  <si>
     <t>MHV</t>
   </si>
   <si>
@@ -901,7 +1121,7 @@
     <t>Potential Perc Reduction in Proc Emis from Cement, Mass CO2e Avoidable by Marginal Cost</t>
   </si>
   <si>
-    <t>high, but included data source supports multiple countries, after taking data from indst/BPEiC (do that variable first)</t>
+    <t>high, but included data source supports multiple countries</t>
   </si>
   <si>
     <t>PIFURfE</t>
@@ -934,7 +1154,19 @@
     <t>Recipient Industrial Fuel Fractions</t>
   </si>
   <si>
-    <t>Recipient Industrial Fuel Fractions from Coal, Recipient Industrial Fuel Fractions from Natural Gas</t>
+    <t>You want this policy lever to be something other than a shift to a combination of electricity and hydrogen, based on each industry's electrification potential</t>
+  </si>
+  <si>
+    <t>RoPSoPBvOD</t>
+  </si>
+  <si>
+    <t>Ratio of People Supportable on Plant Based vs Omnivorous Diet</t>
+  </si>
+  <si>
+    <t>TNRbI</t>
+  </si>
+  <si>
+    <t>Total Nonfuel Revenue by Industry</t>
   </si>
   <si>
     <t>WMITR</t>
@@ -952,10 +1184,13 @@
     <t>Annual Ongoing Cost of Land Use Policies per Unit Area</t>
   </si>
   <si>
-    <t>BLACE</t>
-  </si>
-  <si>
-    <t>BAU LULUCF Anthropogenic CO2 Emissions</t>
+    <t>BLAPE</t>
+  </si>
+  <si>
+    <t>BAU LULUCF Anthropogenic Pollutant Emissions</t>
+  </si>
+  <si>
+    <t>RPEpUACE</t>
   </si>
   <si>
     <t>CApULAbIFM</t>
@@ -970,6 +1205,9 @@
     <t>Change in Land Value per Unit Area Affected by Policy</t>
   </si>
   <si>
+    <t>You want to estimate the change in land's financial value caused by LULUCF policies</t>
+  </si>
+  <si>
     <t>CSpULApYbP</t>
   </si>
   <si>
@@ -1000,22 +1238,40 @@
     <t>Potential Land Area Newly Affected by Policy in a Single Year</t>
   </si>
   <si>
-    <t>RPEpUACE</t>
-  </si>
-  <si>
     <t>Rebound Pollutant Emissions per Unit Avoided CO2 Emissions</t>
   </si>
   <si>
     <t>plcy-ctrl-ctr</t>
   </si>
   <si>
+    <t>BAEPAbCiGC</t>
+  </si>
+  <si>
+    <t>Boolean Are Electricity Prices Affected by Changes in Generating Costs</t>
+  </si>
+  <si>
+    <t>n/a (control lever)</t>
+  </si>
+  <si>
+    <t>You are modeling a region where electricity prices are fixed, and electricity suppliers are expected to absorb any increases or decreases in cost without passing on these costs or savings to electricity buyers</t>
+  </si>
+  <si>
+    <t>BENCEfCT</t>
+  </si>
+  <si>
+    <t>Boolean Exempt Non CO2 Emissions from Carbon Tax</t>
+  </si>
+  <si>
+    <t>You want carbon pricing to only apply to CO2 emissions, exempting other GHGs (such as methane) and other climate-forcing pollutants (such as black carbon)</t>
+  </si>
+  <si>
     <t>BEPEfCT</t>
   </si>
   <si>
     <t>Boolean Exempt Process Emissions from Carbon Tax</t>
   </si>
   <si>
-    <t>n/a (control lever)</t>
+    <t>You want carbon pricing to only apply to energy-related emissions, exempting non-energy emissions associated with industrial, agricultural, and waste management operations</t>
   </si>
   <si>
     <t>BIEfIE</t>
@@ -1024,12 +1280,18 @@
     <t>Boolean Include Emissions from Imported Electricity</t>
   </si>
   <si>
+    <t>You wish to include the emissions associated with the generation of imported electricity (which occur outside the modeled region) in the modeled region's emissions outputs</t>
+  </si>
+  <si>
     <t>BUTYGV</t>
   </si>
   <si>
     <t>Boolean Use Twenty Year GWP Values</t>
   </si>
   <si>
+    <t>You wish to use 20-year GWP values instead of 100-year GWP values for GHGs (other than F-gases)</t>
+  </si>
+  <si>
     <t>plcy-schd</t>
   </si>
   <si>
@@ -1039,13 +1301,16 @@
     <t>Fraction of Policy Implemented This Year</t>
   </si>
   <si>
+    <t>You are building a policy scenario that implements policies using a non-default schedule</t>
+  </si>
+  <si>
     <t>FT</t>
   </si>
   <si>
     <t>Final Time</t>
   </si>
   <si>
-    <t>as desired or as other input data allow</t>
+    <t>The EPS does not currently support end dates beyond 2050</t>
   </si>
   <si>
     <t>IT</t>
@@ -1054,6 +1319,9 @@
     <t>Initial Time</t>
   </si>
   <si>
+    <t>You have updated policy schedules (FoPITY) and start year input variables accordingly</t>
+  </si>
+  <si>
     <t>trans</t>
   </si>
   <si>
@@ -1093,7 +1361,7 @@
     <t>BAU Historical New Vehicle Fuel Economy After Lifetime</t>
   </si>
   <si>
-    <t>medium (relies on BNVFE)</t>
+    <t>BNVFE, AVLo, PTFURfE, AVL</t>
   </si>
   <si>
     <t>BLP</t>
@@ -1129,6 +1397,12 @@
     <t>BAU Perc of Each Fuel Used by Veh Technology</t>
   </si>
   <si>
+    <t>BRAaCTSC</t>
+  </si>
+  <si>
+    <t>BAU Range Anxiety and Charging Time Shadow Cost</t>
+  </si>
+  <si>
     <t>BVTStL</t>
   </si>
   <si>
@@ -1144,12 +1418,21 @@
     <t>n/a (unless overriding model calcs)</t>
   </si>
   <si>
+    <t>You are modeling a low-carbon fuel standard (LCFS) that grants an amount of credit to certain fuels for contributing to the LCFS that is not in proportion to the actual CO2 emissions from those fuels.</t>
+  </si>
+  <si>
     <t>ECpV</t>
   </si>
   <si>
     <t>Embedded Carbon per Vehicle</t>
   </si>
   <si>
+    <t>EoCSoEVMS</t>
+  </si>
+  <si>
+    <t>Effect of Charging Stations on EV Market Share</t>
+  </si>
+  <si>
     <t>EoDfVUwFC</t>
   </si>
   <si>
@@ -1174,6 +1457,18 @@
     <t>Elasticity of Vehicle Price wrt Fuel Economy</t>
   </si>
   <si>
+    <t>EVCCC</t>
+  </si>
+  <si>
+    <t>EV Charger Capital Cost</t>
+  </si>
+  <si>
+    <t>EVCLC</t>
+  </si>
+  <si>
+    <t>EV Charger Labor Cost</t>
+  </si>
+  <si>
     <t>FoVObE</t>
   </si>
   <si>
@@ -1186,7 +1481,7 @@
     <t>Grams CO2e Avoided per LCFS Credit</t>
   </si>
   <si>
-    <t>n/a (unlikely to apply to most regions)</t>
+    <t>You are modeling a low-carbon fuel standard (LCFS) implemented via tradeable credits, and you want the EPS to estimate the number of LCFS credits generated and LCFS credit prices.</t>
   </si>
   <si>
     <t>ICtPSFfL</t>
@@ -1207,13 +1502,19 @@
     <t>Max Percent New Vehicles by Technology</t>
   </si>
   <si>
+    <t>SYVbT</t>
+  </si>
+  <si>
     <t>MPoEFUbVT</t>
   </si>
   <si>
     <t>Max Perc of Each Fuel Usable by Vehicle Technology</t>
   </si>
   <si>
-    <t>low (but copy new nonroad values from BPoEFUbVT if they changed)</t>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Population</t>
   </si>
   <si>
     <t>PCiCDTdtTDM</t>
@@ -1222,12 +1523,6 @@
     <t>Perc Change in Cargo Dist Transported due to TDM</t>
   </si>
   <si>
-    <t>PNNRbNEdtP</t>
-  </si>
-  <si>
-    <t>Perc New NonEVs Replaced by New EVs due to Perks</t>
-  </si>
-  <si>
     <t>PTFURfE</t>
   </si>
   <si>
@@ -1264,9 +1559,6 @@
     <t>Start Year Fleet Avg Fuel Economy</t>
   </si>
   <si>
-    <t>SYVbT</t>
-  </si>
-  <si>
     <t>Start Year Vehicles by Technology</t>
   </si>
   <si>
@@ -1276,6 +1568,21 @@
     <t>Vehicle Buyer Discount Rate</t>
   </si>
   <si>
+    <t>VQS</t>
+  </si>
+  <si>
+    <t>Vehicle Quantization Size</t>
+  </si>
+  <si>
+    <t>The fleet average fuel economy for certain vehicle types is being thrown off by rounding error, particularly when an erroneously introduced vehicle is the only vehicle of its type and technology in existence in a particular year</t>
+  </si>
+  <si>
+    <t>VTStFES</t>
+  </si>
+  <si>
+    <t>Vehicle Technologies Subject to Fuel Economy Standards</t>
+  </si>
+  <si>
     <t>web-app</t>
   </si>
   <si>
@@ -1285,7 +1592,7 @@
     <t>BTU Conversion Factors</t>
   </si>
   <si>
-    <t>BTU per Large Fuel Output Unit, BTU per Small Fuel Output Unit, Vehicle Fuel Economy Unit Conversion Factors</t>
+    <t>BTU per Large Fuel Output Unit, BTU per Small Fuel Output Unit, Vehicle Fuel Economy Unit Conversion Factors, BTU per Energy Import Export Output Unit</t>
   </si>
   <si>
     <t>BpTPEU</t>
@@ -1303,13 +1610,19 @@
     <t>Passenger Miles per Passenger Distance Output Unit, Freight Ton Miles per Freight Distance Output Unit</t>
   </si>
   <si>
+    <t>LpWOU</t>
+  </si>
+  <si>
+    <t>Liters per Water Output Unit</t>
+  </si>
+  <si>
     <t>OCCF</t>
   </si>
   <si>
     <t>Output Currency Conversion Factors</t>
   </si>
   <si>
-    <t>Dollars per Large Output Currency Unit, Dollars per Small Output Currency Unit</t>
+    <t>Dollars per Large Output Currency Unit, Dollars per Medium Output Currency Unit, Dollars per Small Output Currency Unit</t>
   </si>
   <si>
     <t>Corresponding Sheet(s) in Vensim Model</t>
@@ -1337,6 +1650,9 @@
   </si>
   <si>
     <t>Fuels</t>
+  </si>
+  <si>
+    <t>Hydrogen Supply</t>
   </si>
   <si>
     <t>Industry - Main, Industry - Cash Flow</t>
@@ -1378,7 +1694,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1421,8 +1737,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1430,11 +1752,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1473,6 +1804,45 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1818,7 +2188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" xr3:uid="{AEA406A1-0E4B-5B11-9CD5-51D6E497D94C}"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -2150,11 +2520,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E156"/>
+  <dimension ref="A1:G189"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{958C4451-9541-5A59-BF78-D2F731DF1C81}">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2163,2256 +2533,2923 @@
     <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="49.140625" style="2" customWidth="1"/>
     <col min="4" max="4" width="67" style="2" customWidth="1"/>
-    <col min="5" max="5" width="37.5703125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="2"/>
+    <col min="5" max="5" width="18.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="54" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="27" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A4" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30">
+      <c r="A7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="13" customFormat="1" ht="45" customHeight="1">
+      <c r="A9" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="6" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E4" s="6" t="s">
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="2" t="s">
+    <row r="15" spans="1:7" ht="30">
+      <c r="A15" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="B15" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30">
+      <c r="A17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30">
+      <c r="A19" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F19" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="30">
+      <c r="A20" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30">
+      <c r="A21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="30">
+      <c r="A22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="30">
+      <c r="A23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="45">
+      <c r="A24" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A25" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>127</v>
+      </c>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="G25" s="19"/>
+    </row>
+    <row r="26" spans="1:7" ht="30">
+      <c r="A26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="30">
+      <c r="A27" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A28" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E28" s="19"/>
+      <c r="F28" s="22" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="G28" s="19"/>
+    </row>
+    <row r="29" spans="1:7" ht="30">
+      <c r="A29" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A30" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B30" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="19"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="28" customFormat="1">
+      <c r="A33" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="F33" s="29" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="30" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A34" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>151</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D34" s="25"/>
+      <c r="E34" s="25"/>
+      <c r="F34" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="45">
+      <c r="A38" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="45">
+      <c r="A43" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="30">
+      <c r="A45" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="75">
+      <c r="A47" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="30">
+      <c r="A51" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="60">
+      <c r="A53" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="30">
+      <c r="A54" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="30">
+      <c r="A55" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="30">
+      <c r="A58" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="120">
+      <c r="A59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="60">
+      <c r="A61" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F62" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="4" t="s">
+    <row r="63" spans="1:7">
+      <c r="A63" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F63" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="6" t="s">
+    <row r="64" spans="1:7">
+      <c r="A64" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="F65" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E9" s="5" t="s">
+    <row r="66" spans="1:7">
+      <c r="A66" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F66" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    <row r="67" spans="1:7">
+      <c r="A67" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="60">
+      <c r="A68" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="30">
+      <c r="A71" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="30">
+      <c r="A73" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="30">
+      <c r="A74" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="30">
+      <c r="A75" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="60.75" thickBot="1">
+      <c r="A76" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C76" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D76" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="E76" s="19"/>
+      <c r="F76" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="G76" s="19" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="F77" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E11" s="6" t="s">
+    <row r="78" spans="1:7">
+      <c r="A78" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="30">
+      <c r="A83" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="30">
+      <c r="A84" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A85" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>274</v>
+      </c>
+      <c r="C85" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D85" s="19"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="G85" s="19"/>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="45">
+      <c r="A88" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="30">
+      <c r="A90" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="F90" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F91" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="5" t="s">
+    <row r="92" spans="1:7" ht="30">
+      <c r="A92" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="F92" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="30">
+      <c r="A94" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="F94" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="30">
+      <c r="A95" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F95" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="30">
+      <c r="A96" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F96" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="45">
+      <c r="A97" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="60">
+      <c r="A98" s="28" t="s">
+        <v>276</v>
+      </c>
+      <c r="B98" s="28" t="s">
+        <v>309</v>
+      </c>
+      <c r="C98" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="D98" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="E98" s="28"/>
+      <c r="F98" s="29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="E13" s="6" t="s">
+      <c r="G98" s="28"/>
+    </row>
+    <row r="99" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A99" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="C99" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D99" s="19"/>
+      <c r="E99" s="19"/>
+      <c r="F99" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G99" s="19"/>
+    </row>
+    <row r="100" spans="1:7" s="13" customFormat="1">
+      <c r="A100" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F100" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="6" t="s">
+    <row r="101" spans="1:7" s="13" customFormat="1">
+      <c r="A101" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B101" s="13" t="s">
+        <v>317</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="F101" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" s="13" customFormat="1">
+      <c r="A102" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B102" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="13" customFormat="1" ht="30">
+      <c r="A103" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B103" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>323</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="13" customFormat="1" ht="30">
+      <c r="A104" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B104" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="F104" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" s="13" customFormat="1">
+      <c r="A105" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="B105" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="F105" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G105" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="13" customFormat="1" ht="30.75" thickBot="1">
+      <c r="A106" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="B106" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="C106" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="D106" s="25"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G106" s="25" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="30">
+      <c r="A108" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="F108" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" ht="30">
+      <c r="A109" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="F109" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="30">
+      <c r="A110" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F110" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="5" t="s">
+    <row r="111" spans="1:7">
+      <c r="A111" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" ht="30">
+      <c r="A112" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="6" t="s">
+    <row r="113" spans="1:7" ht="30">
+      <c r="A113" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F113" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="E17" s="6" t="s">
+    <row r="114" spans="1:7">
+      <c r="A114" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="F114" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="30">
+      <c r="A115" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="D115" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="E115" s="13"/>
+      <c r="F115" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" ht="30">
+      <c r="A116" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="D116" s="13"/>
+      <c r="E116" s="13"/>
+      <c r="F116" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30">
-      <c r="A18" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" s="6" t="s">
+    <row r="117" spans="1:7">
+      <c r="A117" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="F117" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" ht="30">
+      <c r="A118" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="D118" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" ht="30">
+      <c r="A119" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="F119" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" ht="30">
+      <c r="A120" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F120" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30">
-      <c r="A19" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="5" t="s">
+    <row r="121" spans="1:7" ht="30">
+      <c r="A121" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" ht="30">
+      <c r="A122" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F122" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E20" s="6" t="s">
+    <row r="123" spans="1:7" ht="45">
+      <c r="A123" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F123" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" ht="30">
+      <c r="A124" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="F124" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="15.75" thickBot="1">
+      <c r="A126" s="19" t="s">
+        <v>332</v>
+      </c>
+      <c r="B126" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="C126" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="D126" s="19"/>
+      <c r="E126" s="19"/>
+      <c r="F126" s="20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E21" s="6" t="s">
+      <c r="G126" s="19"/>
+    </row>
+    <row r="127" spans="1:7" ht="30">
+      <c r="A127" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="F127" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="30">
-      <c r="A22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="E22" s="5" t="s">
+    <row r="128" spans="1:7">
+      <c r="A128" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F128" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" ht="30">
+      <c r="A129" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" ht="30">
+      <c r="A130" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="F130" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G130" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" ht="30">
+      <c r="A131" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="F132" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="30">
-      <c r="A23" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E23" s="5" t="s">
+    <row r="133" spans="1:7">
+      <c r="A133" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" ht="30">
+      <c r="A134" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" ht="30">
+      <c r="A135" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A136" s="19" t="s">
+        <v>381</v>
+      </c>
+      <c r="B136" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="C136" s="19" t="s">
+        <v>402</v>
+      </c>
+      <c r="D136" s="19"/>
+      <c r="E136" s="19"/>
+      <c r="F136" s="23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="30">
-      <c r="A24" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="16" t="s">
+      <c r="G136" s="19"/>
+    </row>
+    <row r="137" spans="1:7" ht="60">
+      <c r="A137" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="F137" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" ht="45">
+      <c r="A138" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="F138" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" ht="60">
+      <c r="A139" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="F139" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" ht="60">
+      <c r="A140" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="F140" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A141" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="B141" s="19" t="s">
+        <v>417</v>
+      </c>
+      <c r="C141" s="19" t="s">
+        <v>418</v>
+      </c>
+      <c r="D141" s="19"/>
+      <c r="E141" s="19"/>
+      <c r="F141" s="26" t="s">
+        <v>406</v>
+      </c>
+      <c r="G141" s="19" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" ht="30">
+      <c r="A142" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="F142" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="F143" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A144" s="19" t="s">
+        <v>420</v>
+      </c>
+      <c r="B144" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="C144" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D144" s="19"/>
+      <c r="E144" s="19"/>
+      <c r="F144" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="G144" s="19" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" ht="30">
+      <c r="A148" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" ht="30">
+      <c r="A150" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="F151" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" ht="30">
+      <c r="A154" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" ht="60">
+      <c r="A158" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="B158" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="F158" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>473</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="F164" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>475</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>477</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" ht="60">
+      <c r="A168" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="F168" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" ht="60">
+      <c r="A169" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="F169" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G169" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" ht="60">
+      <c r="A170" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F170" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="G170" s="2" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="F172" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>493</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>494</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" ht="30">
+      <c r="A175" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>497</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="F175" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="F176" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="F177" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30">
-      <c r="A25" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E25" s="5" t="s">
+    <row r="178" spans="1:7">
+      <c r="A178" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>503</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" ht="30">
+      <c r="A179" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="F179" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30">
-      <c r="A26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="E26" s="6" t="s">
+    <row r="180" spans="1:7">
+      <c r="A180" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="F180" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="45">
-      <c r="A28" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="E29" s="5" t="s">
+    <row r="181" spans="1:7">
+      <c r="A181" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="F181" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" ht="60">
+      <c r="A183" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="F183" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G183" s="2" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A184" s="19" t="s">
+        <v>430</v>
+      </c>
+      <c r="B184" s="19" t="s">
+        <v>515</v>
+      </c>
+      <c r="C184" s="19" t="s">
+        <v>516</v>
+      </c>
+      <c r="D184" s="19"/>
+      <c r="E184" s="19"/>
+      <c r="F184" s="23" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="G184" s="19"/>
+    </row>
+    <row r="185" spans="1:7" ht="45">
+      <c r="A185" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>522</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" ht="30">
+      <c r="A187" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>526</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="F188" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E33" s="6" t="s">
+    <row r="189" spans="1:7" ht="30.75" thickBot="1">
+      <c r="A189" s="19" t="s">
+        <v>517</v>
+      </c>
+      <c r="B189" s="19" t="s">
+        <v>528</v>
+      </c>
+      <c r="C189" s="19" t="s">
+        <v>529</v>
+      </c>
+      <c r="D189" s="19" t="s">
+        <v>530</v>
+      </c>
+      <c r="E189" s="19"/>
+      <c r="F189" s="20" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="30">
-      <c r="A42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="30">
-      <c r="A44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="30">
-      <c r="A46" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="30">
-      <c r="A50" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E51" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="30">
-      <c r="A52" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E52" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="30">
-      <c r="A53" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>192</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="E55" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="30">
-      <c r="A56" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="120">
-      <c r="A57" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="30">
-      <c r="A59" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="E59" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="E60" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="E66" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="30">
-      <c r="A69" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E70" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="30">
-      <c r="A71" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E71" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="30">
-      <c r="A72" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="30">
-      <c r="A73" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="E74" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="E75" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="E76" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="E79" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="30">
-      <c r="A80" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="30">
-      <c r="A81" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
-      <c r="A82" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
-      <c r="A83" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="45">
-      <c r="A84" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
-      <c r="A85" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
-      <c r="A86" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="E86" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="45">
-      <c r="A87" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E87" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
-      <c r="A88" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E88" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
-      <c r="A89" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="E89" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
-      <c r="A90" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E90" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
-      <c r="A91" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="30">
-      <c r="A92" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="30">
-      <c r="A93" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="D93" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="A94" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="E94" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
-      <c r="A95" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="45">
-      <c r="A96" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="E96" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" ht="30">
-      <c r="A97" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" ht="30">
-      <c r="A98" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" ht="30">
-      <c r="A99" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" ht="30">
-      <c r="A100" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" ht="30">
-      <c r="A101" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
-      <c r="A102" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" ht="30">
-      <c r="A103" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
-      <c r="A104" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="E104" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" ht="30">
-      <c r="A105" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" ht="30">
-      <c r="A106" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" ht="30">
-      <c r="A107" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5">
-      <c r="A108" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5">
-      <c r="A109" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" ht="30">
-      <c r="A110" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="E110" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="30">
-      <c r="A111" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="E111" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" ht="30">
-      <c r="A112" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E112" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5">
-      <c r="A113" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="E113" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5">
-      <c r="A114" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="E114" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5">
-      <c r="A115" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E115" s="7" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5">
-      <c r="A116" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="E116" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5">
-      <c r="A117" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="E117" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5">
-      <c r="A118" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="C118" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="E118" s="7" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5">
-      <c r="A119" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="E119" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5">
-      <c r="A120" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="C120" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5">
-      <c r="A121" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="C121" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E121" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" ht="30">
-      <c r="A122" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="E122" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5">
-      <c r="A123" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="C123" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" ht="30">
-      <c r="A124" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="C124" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="E124" s="6" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5">
-      <c r="A125" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="C125" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5">
-      <c r="A126" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5">
-      <c r="A127" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="E127" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" ht="30">
-      <c r="A128" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="E128" s="6" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5">
-      <c r="A129" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="E129" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5">
-      <c r="A130" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C130" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="E130" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5">
-      <c r="A131" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="B131" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="C131" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="E131" s="7" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5">
-      <c r="A132" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E132" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5">
-      <c r="A133" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="E133" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5">
-      <c r="A134" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="C134" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="E134" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5">
-      <c r="A135" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5">
-      <c r="A136" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="E136" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5">
-      <c r="A137" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5">
-      <c r="A138" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="E138" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5">
-      <c r="A139" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="E139" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5">
-      <c r="A140" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="E140" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5">
-      <c r="A141" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="E141" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="30">
-      <c r="A142" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="E142" s="5" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5">
-      <c r="A143" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E143" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5">
-      <c r="A144" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="E144" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" ht="30">
-      <c r="A145" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="E145" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5">
-      <c r="A146" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="E146" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5">
-      <c r="A147" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>404</v>
-      </c>
-      <c r="E147" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5">
-      <c r="A148" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="E148" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" ht="30">
-      <c r="A149" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="E149" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="E150" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="E151" s="14" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>413</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>414</v>
-      </c>
-      <c r="E152" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" ht="30">
-      <c r="A153" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>416</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="D153" s="2" t="s">
-        <v>418</v>
-      </c>
-      <c r="E153" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E154" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" ht="30">
-      <c r="A155" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>421</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E155" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" ht="30">
-      <c r="A156" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="E156" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="G189" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4422,9 +5459,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0" xr3:uid="{842E5F09-E766-5B8D-85AF-A39847EA96FD}">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -4440,119 +5477,127 @@
         <v>65</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>427</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>430</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="B6" t="s">
-        <v>432</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s">
-        <v>433</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
-        <v>434</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="B9" t="s">
-        <v>435</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>269</v>
+        <v>314</v>
       </c>
       <c r="B10" t="s">
-        <v>436</v>
+        <v>540</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="B11" t="s">
-        <v>437</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>325</v>
+        <v>381</v>
       </c>
       <c r="B12" t="s">
-        <v>438</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>333</v>
+        <v>403</v>
       </c>
       <c r="B13" t="s">
-        <v>439</v>
+        <v>543</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>341</v>
+        <v>420</v>
       </c>
       <c r="B14" t="s">
-        <v>440</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="B15" t="s">
-        <v>441</v>
+        <v>545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>517</v>
+      </c>
+      <c r="B16" t="s">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -4813,13 +5858,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EE7C36F1-EA48-42F7-81BA-7BE8F7740118}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1B10BC-4FA1-4D78-BE87-050592A4192D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56A36B2D-5D96-4AF1-A08A-3B86D602AB80}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F984B1A-22E0-4FF6-9077-24DC55010239}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E7E9B30-EDB1-4C0C-B85F-812BD417153F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC686F6F-A43A-4F7E-81D0-BB9483096F8E}"/>
 </file>
--- a/InputData/acronym-key.xlsx
+++ b/InputData/acronym-key.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22206"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22223"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipP\InputData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TempUserProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_3f05\AC\Temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_D1D127A6F92FA3437A4AED662F748F1322AC704B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_D1D127A6F92FA3437A4AED662F748F1322AC704B" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{9418616E-59B7-4DDF-B181-6B34FEF9E000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="30" windowWidth="18180" windowHeight="8730" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="25560" windowHeight="15060" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="3" r:id="rId1"/>
     <sheet name="Key to Variables" sheetId="1" r:id="rId2"/>
     <sheet name="Key to Top Level Folders" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Key to Variables'!$A$1:$G$189</definedName>
+  </definedNames>
+  <calcPr calcId="191028" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1677,7 +1680,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2190,82 +2193,82 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>14</v>
       </c>
@@ -2273,32 +2276,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" s="15" t="s">
         <v>21</v>
       </c>
@@ -2306,17 +2309,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>25</v>
       </c>
@@ -2324,42 +2327,42 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>34</v>
       </c>
@@ -2367,84 +2370,84 @@
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>51</v>
       </c>
@@ -2452,62 +2455,62 @@
         <v>52</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>64</v>
       </c>
@@ -2520,14 +2523,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A110" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A116" sqref="A116"/>
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A87" sqref="A87:XFD87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.5703125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" style="2" customWidth="1"/>
@@ -2539,7 +2543,7 @@
     <col min="8" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>65</v>
       </c>
@@ -2562,7 +2566,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
@@ -2576,7 +2580,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>72</v>
       </c>
@@ -2593,7 +2597,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15.75" thickBot="1">
+    <row r="4" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>72</v>
       </c>
@@ -2610,7 +2614,7 @@
       </c>
       <c r="G4" s="19"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>79</v>
       </c>
@@ -2624,7 +2628,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>79</v>
       </c>
@@ -2638,7 +2642,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="30">
+    <row r="7" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>79</v>
       </c>
@@ -2655,7 +2659,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30">
+    <row r="8" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>79</v>
       </c>
@@ -2672,7 +2676,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="13" customFormat="1" ht="45" customHeight="1">
+    <row r="9" spans="1:7" s="13" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>79</v>
       </c>
@@ -2689,7 +2693,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>79</v>
       </c>
@@ -2703,7 +2707,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>79</v>
       </c>
@@ -2717,9 +2721,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>79</v>
+        <v>276</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>98</v>
@@ -2731,7 +2735,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>79</v>
       </c>
@@ -2745,7 +2749,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>79</v>
       </c>
@@ -2759,7 +2763,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30">
+    <row r="15" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>79</v>
       </c>
@@ -2773,7 +2777,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>79</v>
       </c>
@@ -2787,7 +2791,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30">
+    <row r="17" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>79</v>
       </c>
@@ -2801,7 +2805,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>79</v>
       </c>
@@ -2815,7 +2819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="30">
+    <row r="19" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>79</v>
       </c>
@@ -2832,7 +2836,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="30">
+    <row r="20" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>79</v>
       </c>
@@ -2846,7 +2850,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30">
+    <row r="21" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>79</v>
       </c>
@@ -2863,7 +2867,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30">
+    <row r="22" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>79</v>
       </c>
@@ -2877,7 +2881,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30">
+    <row r="23" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>79</v>
       </c>
@@ -2891,7 +2895,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="45">
+    <row r="24" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>79</v>
       </c>
@@ -2908,7 +2912,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="30.75" thickBot="1">
+    <row r="25" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>79</v>
       </c>
@@ -2925,7 +2929,7 @@
       </c>
       <c r="G25" s="19"/>
     </row>
-    <row r="26" spans="1:7" ht="30">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>128</v>
       </c>
@@ -2942,7 +2946,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="30">
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>128</v>
       </c>
@@ -2959,7 +2963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" thickBot="1">
+    <row r="28" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>128</v>
       </c>
@@ -2978,7 +2982,7 @@
       </c>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="1:7" ht="30">
+    <row r="29" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>138</v>
       </c>
@@ -2995,7 +2999,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="15.75" thickBot="1">
+    <row r="30" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>138</v>
       </c>
@@ -3012,7 +3016,7 @@
       </c>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>144</v>
       </c>
@@ -3026,7 +3030,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>144</v>
       </c>
@@ -3040,7 +3044,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="28" customFormat="1">
+    <row r="33" spans="1:7" s="28" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
         <v>144</v>
       </c>
@@ -3054,7 +3058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="30" customFormat="1" ht="30.75" thickBot="1">
+    <row r="34" spans="1:7" s="30" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
         <v>144</v>
       </c>
@@ -3073,7 +3077,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>154</v>
       </c>
@@ -3087,7 +3091,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>154</v>
       </c>
@@ -3101,7 +3105,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>154</v>
       </c>
@@ -3115,7 +3119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="45">
+    <row r="38" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>154</v>
       </c>
@@ -3132,7 +3136,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>154</v>
       </c>
@@ -3146,7 +3150,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>154</v>
       </c>
@@ -3160,7 +3164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>154</v>
       </c>
@@ -3174,7 +3178,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>154</v>
       </c>
@@ -3188,7 +3192,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="45">
+    <row r="43" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>154</v>
       </c>
@@ -3205,7 +3209,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>154</v>
       </c>
@@ -3219,7 +3223,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="30">
+    <row r="45" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>154</v>
       </c>
@@ -3236,7 +3240,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>154</v>
       </c>
@@ -3250,7 +3254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="75">
+    <row r="47" spans="1:7" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>154</v>
       </c>
@@ -3267,7 +3271,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>154</v>
       </c>
@@ -3281,7 +3285,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>154</v>
       </c>
@@ -3295,7 +3299,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>154</v>
       </c>
@@ -3309,7 +3313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="30">
+    <row r="51" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>154</v>
       </c>
@@ -3326,7 +3330,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>154</v>
       </c>
@@ -3340,7 +3344,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="60">
+    <row r="53" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>154</v>
       </c>
@@ -3357,7 +3361,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30">
+    <row r="54" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>154</v>
       </c>
@@ -3375,7 +3379,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30">
+    <row r="55" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>154</v>
       </c>
@@ -3393,7 +3397,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>154</v>
       </c>
@@ -3410,7 +3414,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>154</v>
       </c>
@@ -3424,7 +3428,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="30">
+    <row r="58" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>154</v>
       </c>
@@ -3438,7 +3442,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="120">
+    <row r="59" spans="1:7" ht="120" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>154</v>
       </c>
@@ -3455,7 +3459,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>154</v>
       </c>
@@ -3469,7 +3473,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="60">
+    <row r="61" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>154</v>
       </c>
@@ -3486,7 +3490,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>154</v>
       </c>
@@ -3500,7 +3504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>154</v>
       </c>
@@ -3514,7 +3518,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>154</v>
       </c>
@@ -3528,7 +3532,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
+    <row r="65" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>154</v>
       </c>
@@ -3542,7 +3546,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>154</v>
       </c>
@@ -3556,7 +3560,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>154</v>
       </c>
@@ -3570,7 +3574,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="60">
+    <row r="68" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>154</v>
       </c>
@@ -3587,7 +3591,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>154</v>
       </c>
@@ -3601,7 +3605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>154</v>
       </c>
@@ -3615,7 +3619,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="30">
+    <row r="71" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>154</v>
       </c>
@@ -3632,7 +3636,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="1:7">
+    <row r="72" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>154</v>
       </c>
@@ -3646,7 +3650,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="30">
+    <row r="73" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>154</v>
       </c>
@@ -3663,7 +3667,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30">
+    <row r="74" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>154</v>
       </c>
@@ -3677,7 +3681,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="30">
+    <row r="75" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>154</v>
       </c>
@@ -3691,7 +3695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="60.75" thickBot="1">
+    <row r="76" spans="1:7" ht="60.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="19" t="s">
         <v>154</v>
       </c>
@@ -3712,7 +3716,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
+    <row r="77" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>257</v>
       </c>
@@ -3726,7 +3730,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
+    <row r="78" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>257</v>
       </c>
@@ -3740,7 +3744,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
+    <row r="79" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>257</v>
       </c>
@@ -3754,7 +3758,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="1:7">
+    <row r="80" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>257</v>
       </c>
@@ -3768,7 +3772,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
+    <row r="81" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>257</v>
       </c>
@@ -3782,7 +3786,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:7">
+    <row r="82" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>257</v>
       </c>
@@ -3796,7 +3800,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="30">
+    <row r="83" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>257</v>
       </c>
@@ -3810,7 +3814,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="30">
+    <row r="84" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>257</v>
       </c>
@@ -3824,7 +3828,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="15.75" thickBot="1">
+    <row r="85" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="19" t="s">
         <v>257</v>
       </c>
@@ -3841,7 +3845,7 @@
       </c>
       <c r="G85" s="19"/>
     </row>
-    <row r="86" spans="1:7">
+    <row r="86" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>276</v>
       </c>
@@ -3855,7 +3859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:7">
+    <row r="87" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>276</v>
       </c>
@@ -3872,7 +3876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="45">
+    <row r="88" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>276</v>
       </c>
@@ -3889,7 +3893,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:7">
+    <row r="89" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>276</v>
       </c>
@@ -3903,7 +3907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="30">
+    <row r="90" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>276</v>
       </c>
@@ -3920,7 +3924,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="91" spans="1:7">
+    <row r="91" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>276</v>
       </c>
@@ -3934,7 +3938,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="30">
+    <row r="92" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>276</v>
       </c>
@@ -3951,7 +3955,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="93" spans="1:7">
+    <row r="93" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>276</v>
       </c>
@@ -3965,7 +3969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="30">
+    <row r="94" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>276</v>
       </c>
@@ -3982,7 +3986,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="30">
+    <row r="95" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>276</v>
       </c>
@@ -3999,7 +4003,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="30">
+    <row r="96" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>276</v>
       </c>
@@ -4016,7 +4020,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="45">
+    <row r="97" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>276</v>
       </c>
@@ -4033,7 +4037,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="60">
+    <row r="98" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="28" t="s">
         <v>276</v>
       </c>
@@ -4052,7 +4056,7 @@
       </c>
       <c r="G98" s="28"/>
     </row>
-    <row r="99" spans="1:7" ht="30.75" thickBot="1">
+    <row r="99" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="19" t="s">
         <v>276</v>
       </c>
@@ -4069,7 +4073,7 @@
       </c>
       <c r="G99" s="19"/>
     </row>
-    <row r="100" spans="1:7" s="13" customFormat="1">
+    <row r="100" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13" t="s">
         <v>314</v>
       </c>
@@ -4083,7 +4087,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="13" customFormat="1">
+    <row r="101" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="13" t="s">
         <v>314</v>
       </c>
@@ -4097,7 +4101,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="13" customFormat="1">
+    <row r="102" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13" t="s">
         <v>314</v>
       </c>
@@ -4111,7 +4115,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="13" customFormat="1" ht="30">
+    <row r="103" spans="1:7" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13" t="s">
         <v>314</v>
       </c>
@@ -4128,7 +4132,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="13" customFormat="1" ht="30">
+    <row r="104" spans="1:7" s="13" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13" t="s">
         <v>314</v>
       </c>
@@ -4142,7 +4146,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="13" customFormat="1">
+    <row r="105" spans="1:7" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="13" t="s">
         <v>314</v>
       </c>
@@ -4159,7 +4163,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="13" customFormat="1" ht="30.75" thickBot="1">
+    <row r="106" spans="1:7" s="13" customFormat="1" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="25" t="s">
         <v>314</v>
       </c>
@@ -4178,7 +4182,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
+    <row r="107" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>332</v>
       </c>
@@ -4192,7 +4196,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="30">
+    <row r="108" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>332</v>
       </c>
@@ -4212,7 +4216,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="30">
+    <row r="109" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>332</v>
       </c>
@@ -4229,7 +4233,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="30">
+    <row r="110" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>332</v>
       </c>
@@ -4243,7 +4247,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
+    <row r="111" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>332</v>
       </c>
@@ -4257,7 +4261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="30">
+    <row r="112" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>332</v>
       </c>
@@ -4271,7 +4275,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="30">
+    <row r="113" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>332</v>
       </c>
@@ -4288,7 +4292,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
+    <row r="114" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>332</v>
       </c>
@@ -4305,7 +4309,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="30">
+    <row r="115" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>332</v>
       </c>
@@ -4323,7 +4327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="30">
+    <row r="116" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>332</v>
       </c>
@@ -4339,7 +4343,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
+    <row r="117" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>332</v>
       </c>
@@ -4353,7 +4357,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="30">
+    <row r="118" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>332</v>
       </c>
@@ -4373,7 +4377,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="30">
+    <row r="119" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>332</v>
       </c>
@@ -4387,7 +4391,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="30">
+    <row r="120" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>332</v>
       </c>
@@ -4401,7 +4405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="30">
+    <row r="121" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>332</v>
       </c>
@@ -4415,7 +4419,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="30">
+    <row r="122" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>332</v>
       </c>
@@ -4429,7 +4433,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="45">
+    <row r="123" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>332</v>
       </c>
@@ -4446,7 +4450,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="30">
+    <row r="124" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>332</v>
       </c>
@@ -4460,7 +4464,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="125" spans="1:7">
+    <row r="125" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>332</v>
       </c>
@@ -4474,7 +4478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="15.75" thickBot="1">
+    <row r="126" spans="1:7" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="19" t="s">
         <v>332</v>
       </c>
@@ -4491,7 +4495,7 @@
       </c>
       <c r="G126" s="19"/>
     </row>
-    <row r="127" spans="1:7" ht="30">
+    <row r="127" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>381</v>
       </c>
@@ -4505,7 +4509,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="128" spans="1:7">
+    <row r="128" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>381</v>
       </c>
@@ -4522,7 +4526,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="30">
+    <row r="129" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>381</v>
       </c>
@@ -4536,7 +4540,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="30">
+    <row r="130" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>381</v>
       </c>
@@ -4553,7 +4557,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="131" spans="1:7" ht="30">
+    <row r="131" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>381</v>
       </c>
@@ -4567,7 +4571,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="132" spans="1:7">
+    <row r="132" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>381</v>
       </c>
@@ -4581,7 +4585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:7">
+    <row r="133" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>381</v>
       </c>
@@ -4595,7 +4599,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="30">
+    <row r="134" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>381</v>
       </c>
@@ -4609,7 +4613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="30">
+    <row r="135" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>381</v>
       </c>
@@ -4623,7 +4627,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="30.75" thickBot="1">
+    <row r="136" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="19" t="s">
         <v>381</v>
       </c>
@@ -4640,7 +4644,7 @@
       </c>
       <c r="G136" s="19"/>
     </row>
-    <row r="137" spans="1:7" ht="60">
+    <row r="137" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>403</v>
       </c>
@@ -4657,7 +4661,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="45">
+    <row r="138" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>403</v>
       </c>
@@ -4674,7 +4678,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="139" spans="1:7" ht="60">
+    <row r="139" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>403</v>
       </c>
@@ -4691,7 +4695,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="60">
+    <row r="140" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>403</v>
       </c>
@@ -4708,7 +4712,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="141" spans="1:7" ht="30.75" thickBot="1">
+    <row r="141" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="19" t="s">
         <v>403</v>
       </c>
@@ -4727,7 +4731,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="142" spans="1:7" ht="30">
+    <row r="142" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>420</v>
       </c>
@@ -4744,7 +4748,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="143" spans="1:7">
+    <row r="143" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>420</v>
       </c>
@@ -4761,7 +4765,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="144" spans="1:7" ht="30.75" thickBot="1">
+    <row r="144" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="19" t="s">
         <v>420</v>
       </c>
@@ -4780,7 +4784,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="145" spans="1:7">
+    <row r="145" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>430</v>
       </c>
@@ -4794,7 +4798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="146" spans="1:7">
+    <row r="146" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>430</v>
       </c>
@@ -4808,7 +4812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="147" spans="1:7">
+    <row r="147" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>430</v>
       </c>
@@ -4822,7 +4826,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="148" spans="1:7" ht="30">
+    <row r="148" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>430</v>
       </c>
@@ -4836,7 +4840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="149" spans="1:7">
+    <row r="149" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>430</v>
       </c>
@@ -4850,7 +4854,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="30">
+    <row r="150" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>430</v>
       </c>
@@ -4867,7 +4871,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:7">
+    <row r="151" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>430</v>
       </c>
@@ -4881,7 +4885,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:7">
+    <row r="152" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>430</v>
       </c>
@@ -4895,7 +4899,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:7">
+    <row r="153" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>430</v>
       </c>
@@ -4909,7 +4913,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="154" spans="1:7" ht="30">
+    <row r="154" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>430</v>
       </c>
@@ -4923,7 +4927,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="155" spans="1:7">
+    <row r="155" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>430</v>
       </c>
@@ -4937,7 +4941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="156" spans="1:7">
+    <row r="156" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>430</v>
       </c>
@@ -4951,7 +4955,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:7">
+    <row r="157" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>430</v>
       </c>
@@ -4965,7 +4969,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="158" spans="1:7" ht="60">
+    <row r="158" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="13" t="s">
         <v>430</v>
       </c>
@@ -4982,7 +4986,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="159" spans="1:7">
+    <row r="159" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>430</v>
       </c>
@@ -4996,7 +5000,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="160" spans="1:7">
+    <row r="160" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>430</v>
       </c>
@@ -5010,7 +5014,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="161" spans="1:7">
+    <row r="161" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>430</v>
       </c>
@@ -5024,7 +5028,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:7">
+    <row r="162" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>430</v>
       </c>
@@ -5038,7 +5042,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="163" spans="1:7">
+    <row r="163" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>430</v>
       </c>
@@ -5052,7 +5056,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="164" spans="1:7">
+    <row r="164" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>430</v>
       </c>
@@ -5066,7 +5070,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="165" spans="1:7">
+    <row r="165" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>430</v>
       </c>
@@ -5080,7 +5084,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="166" spans="1:7">
+    <row r="166" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>430</v>
       </c>
@@ -5094,7 +5098,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="167" spans="1:7">
+    <row r="167" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>430</v>
       </c>
@@ -5108,7 +5112,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="168" spans="1:7" ht="60">
+    <row r="168" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>430</v>
       </c>
@@ -5125,7 +5129,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="169" spans="1:7" ht="60">
+    <row r="169" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>430</v>
       </c>
@@ -5142,7 +5146,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="170" spans="1:7" ht="60">
+    <row r="170" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>430</v>
       </c>
@@ -5159,7 +5163,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="171" spans="1:7">
+    <row r="171" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>430</v>
       </c>
@@ -5176,7 +5180,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:7">
+    <row r="172" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>430</v>
       </c>
@@ -5193,7 +5197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="173" spans="1:7">
+    <row r="173" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>430</v>
       </c>
@@ -5207,7 +5211,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="174" spans="1:7">
+    <row r="174" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>430</v>
       </c>
@@ -5221,7 +5225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="30">
+    <row r="175" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>430</v>
       </c>
@@ -5235,7 +5239,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="176" spans="1:7">
+    <row r="176" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>430</v>
       </c>
@@ -5252,7 +5256,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="177" spans="1:7">
+    <row r="177" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>430</v>
       </c>
@@ -5266,7 +5270,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="178" spans="1:7">
+    <row r="178" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>430</v>
       </c>
@@ -5280,7 +5284,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="179" spans="1:7" ht="30">
+    <row r="179" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>430</v>
       </c>
@@ -5294,7 +5298,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="180" spans="1:7">
+    <row r="180" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>430</v>
       </c>
@@ -5308,7 +5312,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="181" spans="1:7">
+    <row r="181" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>430</v>
       </c>
@@ -5322,7 +5326,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="182" spans="1:7">
+    <row r="182" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>430</v>
       </c>
@@ -5336,7 +5340,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="183" spans="1:7" ht="60">
+    <row r="183" spans="1:7" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>430</v>
       </c>
@@ -5353,7 +5357,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="184" spans="1:7" ht="30.75" thickBot="1">
+    <row r="184" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="19" t="s">
         <v>430</v>
       </c>
@@ -5370,7 +5374,7 @@
       </c>
       <c r="G184" s="19"/>
     </row>
-    <row r="185" spans="1:7" ht="45">
+    <row r="185" spans="1:7" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>517</v>
       </c>
@@ -5387,7 +5391,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="186" spans="1:7">
+    <row r="186" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>517</v>
       </c>
@@ -5401,7 +5405,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="30">
+    <row r="187" spans="1:7" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>517</v>
       </c>
@@ -5418,7 +5422,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="188" spans="1:7">
+    <row r="188" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>517</v>
       </c>
@@ -5432,7 +5436,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="189" spans="1:7" ht="30.75" thickBot="1">
+    <row r="189" spans="1:7" ht="30.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="19" t="s">
         <v>517</v>
       </c>
@@ -5452,6 +5456,13 @@
       <c r="G189" s="19"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G189" xr:uid="{8F1A0034-FB68-4E71-903A-F0F58E0F3790}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="ccs"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -5466,13 +5477,13 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="52.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -5480,7 +5491,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>72</v>
       </c>
@@ -5488,7 +5499,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -5496,7 +5507,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>138</v>
       </c>
@@ -5504,7 +5515,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>128</v>
       </c>
@@ -5512,7 +5523,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>144</v>
       </c>
@@ -5520,7 +5531,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>154</v>
       </c>
@@ -5528,7 +5539,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>257</v>
       </c>
@@ -5536,7 +5547,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>276</v>
       </c>
@@ -5544,7 +5555,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>314</v>
       </c>
@@ -5552,7 +5563,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>332</v>
       </c>
@@ -5560,7 +5571,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>381</v>
       </c>
@@ -5568,7 +5579,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>403</v>
       </c>
@@ -5576,7 +5587,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>420</v>
       </c>
@@ -5584,7 +5595,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>430</v>
       </c>
@@ -5592,7 +5603,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>517</v>
       </c>
@@ -5615,15 +5626,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010095990DC6317597479C114DD4E6AB1F33" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="00c0eb7d4c43453177323eb1ac58d7e7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="7889d872-e2a2-4afb-87bc-97561eced75f" xmlns:ns3="c9df191c-55f2-496b-9838-9a5abe4742ad" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b5fe72540fcc493259a136614ad94e00" ns1:_="" ns2:_="" ns3:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5857,14 +5859,57 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1B10BC-4FA1-4D78-BE87-050592A4192D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB1B10BC-4FA1-4D78-BE87-050592A4192D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F984B1A-22E0-4FF6-9077-24DC55010239}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC686F6F-A43A-4F7E-81D0-BB9483096F8E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7889d872-e2a2-4afb-87bc-97561eced75f"/>
+    <ds:schemaRef ds:uri="c9df191c-55f2-496b-9838-9a5abe4742ad"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC686F6F-A43A-4F7E-81D0-BB9483096F8E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F984B1A-22E0-4FF6-9077-24DC55010239}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>